--- a/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -893,6 +893,33 @@
       </c>
       <c r="G15" s="5" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>45202.49348515604</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>183scndcp</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>62</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -1606,29 +1633,29 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>45044.72941020147</v>
-      </c>
-      <c r="C14" t="inlineStr">
+        <v>45044.72941019676</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>176fstcproperty</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>2.98</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -896,30 +896,165 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2023-10-03</t>
         </is>
       </c>
       <c r="B16" s="8" t="n">
-        <v>45202.49348515604</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>45202.49348515047</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>183scndcp</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>2.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>45419.75788628472</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>191aaccpp</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>45420.44737079861</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>191accpp</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>45420.47590496528</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>191prorp</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>45420.47833754629</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>191kkacp</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>45420.4847673906</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>191finalacp</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E21" t="n">
+        <v>35</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1657,6 +1792,33 @@
       </c>
       <c r="G14" s="5" t="n">
         <v>2.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>45420.45077725694</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>191vinacp</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1031,30 +1031,57 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>2024-05-08</t>
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>45420.4847673906</v>
-      </c>
-      <c r="C21" t="inlineStr">
+        <v>45420.48476739584</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>191finalacp</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>45467.40873384875</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>193fixesacp</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>35</v>
+      </c>
+      <c r="E22" t="n">
+        <v>35</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_ACustomP_REGISTRATION_HISTORY_DATA.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1058,30 +1058,111 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B22" s="8" t="n">
-        <v>45467.40873384875</v>
-      </c>
-      <c r="C22" t="inlineStr">
+        <v>45467.40873385416</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>193fixesacp</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>45489.62671819444</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>194fstacp</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>45490.74492449074</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>194scndacp</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>45491.35045137732</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>194fnlacp</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1409,6 +1490,33 @@
         <v>-8</v>
       </c>
       <c r="G11" s="5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45491.62862609143</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>194betacp</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.12</v>
       </c>
     </row>
